--- a/packages/ambre/tests/actual_expected/rule_extraction_titanic_omit_column_names_in_result.expected.xlsx
+++ b/packages/ambre/tests/actual_expected/rule_extraction_titanic_omit_column_names_in_result.expected.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +469,11 @@
           <t>antecedents_length</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>consequents_length</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -497,6 +501,9 @@
       <c r="G2" t="n">
         <v>3</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -524,6 +531,9 @@
       <c r="G3" t="n">
         <v>3</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -551,6 +561,9 @@
       <c r="G4" t="n">
         <v>3</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -578,6 +591,9 @@
       <c r="G5" t="n">
         <v>4</v>
       </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -605,6 +621,9 @@
       <c r="G6" t="n">
         <v>4</v>
       </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -632,6 +651,9 @@
       <c r="G7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -659,6 +681,9 @@
       <c r="G8" t="n">
         <v>3</v>
       </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -686,6 +711,9 @@
       <c r="G9" t="n">
         <v>3</v>
       </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -713,6 +741,9 @@
       <c r="G10" t="n">
         <v>3</v>
       </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -740,6 +771,9 @@
       <c r="G11" t="n">
         <v>4</v>
       </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -767,6 +801,9 @@
       <c r="G12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -794,6 +831,9 @@
       <c r="G13" t="n">
         <v>3</v>
       </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -821,6 +861,9 @@
       <c r="G14" t="n">
         <v>3</v>
       </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -848,6 +891,9 @@
       <c r="G15" t="n">
         <v>3</v>
       </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -875,6 +921,9 @@
       <c r="G16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -902,6 +951,9 @@
       <c r="G17" t="n">
         <v>3</v>
       </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -929,6 +981,9 @@
       <c r="G18" t="n">
         <v>4</v>
       </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -956,6 +1011,9 @@
       <c r="G19" t="n">
         <v>3</v>
       </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -983,6 +1041,9 @@
       <c r="G20" t="n">
         <v>3</v>
       </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1010,6 +1071,9 @@
       <c r="G21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1037,6 +1101,9 @@
       <c r="G22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1064,6 +1131,9 @@
       <c r="G23" t="n">
         <v>3</v>
       </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1091,6 +1161,9 @@
       <c r="G24" t="n">
         <v>3</v>
       </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1118,6 +1191,9 @@
       <c r="G25" t="n">
         <v>3</v>
       </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1145,6 +1221,9 @@
       <c r="G26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1172,6 +1251,9 @@
       <c r="G27" t="n">
         <v>3</v>
       </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1199,6 +1281,9 @@
       <c r="G28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1226,6 +1311,9 @@
       <c r="G29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1253,6 +1341,9 @@
       <c r="G30" t="n">
         <v>1</v>
       </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1280,6 +1371,9 @@
       <c r="G31" t="n">
         <v>4</v>
       </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1307,6 +1401,9 @@
       <c r="G32" t="n">
         <v>3</v>
       </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1334,6 +1431,9 @@
       <c r="G33" t="n">
         <v>3</v>
       </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1361,8 +1461,11 @@
       <c r="G34" t="n">
         <v>3</v>
       </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>